--- a/test_data/selenium.xlsx
+++ b/test_data/selenium.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\146698\PycharmProjects\hybrid_framework_web\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\110652\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95E0986-A656-4AEC-A272-3A03869DAFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632EFC82-23B9-427A-90C0-61550A5611F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5A79E87A-789E-41D7-A086-9F6C8181D4EB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5A79E87A-789E-41D7-A086-9F6C8181D4EB}"/>
   </bookViews>
   <sheets>
     <sheet name="test_add_valid_employee" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Password</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>upload number</t>
+  </si>
+  <si>
+    <t>tobi.mylan2@gmail.com</t>
+  </si>
+  <si>
+    <t>Tobi@2020</t>
   </si>
 </sst>
 </file>
@@ -123,9 +129,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -444,16 +451,16 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -470,12 +477,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -504,15 +511,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="31.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -526,7 +533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
